--- a/Experiments/Figure 6/Isolate Keio Summary/Isolate Keio Plating Summary.xlsx
+++ b/Experiments/Figure 6/Isolate Keio Summary/Isolate Keio Plating Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helena\Documents\Helena\Duke\You Lab\Projects\Dosing Project\Experiments\2024 Population Composition\Isolate Keio Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EAFD28-AB4C-4228-B51F-DFE4D8E9036C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C97430-972B-4BCA-AF09-B61592B2599F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{A4446FD2-A429-45AE-A06D-6697FF57328D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="21">
   <si>
     <t>Time</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>D021</t>
+  </si>
+  <si>
+    <t>Fraction Propagated Error</t>
   </si>
 </sst>
 </file>
@@ -456,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAAC0EF-6C91-4726-9515-7ED1606CD09E}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,6 +495,9 @@
         <v>13</v>
       </c>
       <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -521,9 +527,11 @@
         <v>2.4793388429752101E-2</v>
       </c>
       <c r="I2">
-        <v>0.11090666405684911</v>
-      </c>
-      <c r="J2" s="1"/>
+        <v>0.110906664056849</v>
+      </c>
+      <c r="J2" s="1">
+        <v>6.5219429117914285E-2</v>
+      </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -554,7 +562,9 @@
       <c r="I3">
         <v>5.336654952351301E-2</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1">
+        <v>0.14629795472825119</v>
+      </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -585,7 +595,9 @@
       <c r="I4">
         <v>4.8002026921279986E-2</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1">
+        <v>3.0413194889743971E-2</v>
+      </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -616,7 +628,9 @@
       <c r="I5" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1">
+        <v>1.6320431157270093E-2</v>
+      </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -647,7 +661,9 @@
       <c r="I6" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1">
+        <v>1.2561805879969161E-2</v>
+      </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -678,7 +694,9 @@
       <c r="I7">
         <v>7.3329170559003273E-2</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1">
+        <v>5.3023720581962643E-3</v>
+      </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -709,7 +727,9 @@
       <c r="I8">
         <v>5.0834278720213809E-2</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1">
+        <v>1.2881265840009383E-2</v>
+      </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -740,7 +760,9 @@
       <c r="I9">
         <v>7.2672691471107956E-2</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1">
+        <v>1.5722815980806115E-2</v>
+      </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -771,7 +793,9 @@
       <c r="I10">
         <v>3.6143586013123737E-2</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1">
+        <v>7.1188243086437147E-2</v>
+      </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -802,7 +826,9 @@
       <c r="I11">
         <v>5.7046548284705956E-2</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1">
+        <v>3.5437567756851834E-2</v>
+      </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -833,7 +859,9 @@
       <c r="I12">
         <v>0.10446895631493891</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1">
+        <v>2.0127796411467003E-2</v>
+      </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -864,7 +892,9 @@
       <c r="I13">
         <v>4.2066581487554371E-2</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1">
+        <v>6.3705006907226538E-2</v>
+      </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -895,7 +925,9 @@
       <c r="I14">
         <v>0.17726503875805566</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1">
+        <v>8.2116065976942751E-2</v>
+      </c>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -926,7 +958,9 @@
       <c r="I15">
         <v>7.0214735497143979E-2</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1">
+        <v>3.5093018225664337E-4</v>
+      </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -957,7 +991,9 @@
       <c r="I16" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1">
+        <v>8.3238841324203433E-4</v>
+      </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -988,7 +1024,9 @@
       <c r="I17" s="1">
         <v>0.16040823439335561</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1">
+        <v>6.5219429117914285E-2</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
@@ -1020,7 +1058,9 @@
       <c r="I18" s="1">
         <v>1.6902950944698344E-2</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1">
+        <v>0.14629795472825119</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
@@ -1052,6 +1092,9 @@
       <c r="I19">
         <v>2.609250115079511E-2</v>
       </c>
+      <c r="J19">
+        <v>3.0413194889743971E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
@@ -1081,6 +1124,9 @@
       <c r="I20">
         <v>5.3343189551467475E-2</v>
       </c>
+      <c r="J20">
+        <v>1.3034425951964934E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
@@ -1110,6 +1156,9 @@
       <c r="I21">
         <v>3.1589884362815096E-2</v>
       </c>
+      <c r="J21">
+        <v>2.0820357526865987E-3</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
@@ -1139,6 +1188,9 @@
       <c r="I22">
         <v>6.4008317585237909E-2</v>
       </c>
+      <c r="J22">
+        <v>6.1726146848230558E-3</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
@@ -1168,6 +1220,9 @@
       <c r="I23">
         <v>7.8677349233909052E-2</v>
       </c>
+      <c r="J23">
+        <v>4.930315959293647E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
@@ -1197,6 +1252,9 @@
       <c r="I24">
         <v>3.1280962863291926E-2</v>
       </c>
+      <c r="J24">
+        <v>4.0345764746343017E-4</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
@@ -1226,6 +1284,9 @@
       <c r="I25">
         <v>5.4795592061629511E-2</v>
       </c>
+      <c r="J25">
+        <v>1.5516284899703553E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
@@ -1255,6 +1316,9 @@
       <c r="I26">
         <v>3.6612297094392988E-2</v>
       </c>
+      <c r="J26">
+        <v>6.0737749895231986E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
@@ -1284,6 +1348,9 @@
       <c r="I27">
         <v>5.5766468842402217E-2</v>
       </c>
+      <c r="J27">
+        <v>1.8687956984221685E-3</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
@@ -1313,6 +1380,9 @@
       <c r="I28">
         <v>5.023791367561941E-2</v>
       </c>
+      <c r="J28">
+        <v>3.6277267592384775E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
@@ -1342,6 +1412,9 @@
       <c r="I29">
         <v>5.7063685037326277E-2</v>
       </c>
+      <c r="J29">
+        <v>2.0872018001441256E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
@@ -1371,6 +1444,9 @@
       <c r="I30">
         <v>0.13550877218972102</v>
       </c>
+      <c r="J30">
+        <v>6.3510543427779047E-5</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
@@ -1400,6 +1476,9 @@
       <c r="I31">
         <v>3.800814553643652E-2</v>
       </c>
+      <c r="J31">
+        <v>1.3576295395513512E-5</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
@@ -1429,8 +1508,11 @@
       <c r="I32">
         <v>-0.17091704573299399</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J32">
+        <v>6.5219429117914285E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0</v>
       </c>
@@ -1458,8 +1540,11 @@
       <c r="I33">
         <v>9.9470678699025011E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J33">
+        <v>0.14629795472825119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0</v>
       </c>
@@ -1487,8 +1572,11 @@
       <c r="I34">
         <v>0.1127271680152467</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J34">
+        <v>3.0413194889743971E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0</v>
       </c>
@@ -1516,8 +1604,11 @@
       <c r="I35">
         <v>3.8442127770737987E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J35">
+        <v>1.117043279819767E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0</v>
       </c>
@@ -1545,8 +1636,11 @@
       <c r="I36">
         <v>4.8423849299308208E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J36">
+        <v>2.5098907027477971E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>24</v>
       </c>
@@ -1574,8 +1668,11 @@
       <c r="I37">
         <v>2.637929826285049E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J37">
+        <v>1.0171095899185648E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>24</v>
       </c>
@@ -1603,8 +1700,11 @@
       <c r="I38">
         <v>7.2492071508532901E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J38">
+        <v>2.3837756103769769E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>24</v>
       </c>
@@ -1632,8 +1732,11 @@
       <c r="I39">
         <v>5.9397729730245673E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J39">
+        <v>4.4226203601781091E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>24</v>
       </c>
@@ -1661,8 +1764,11 @@
       <c r="I40">
         <v>2.0233508440320392E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>24</v>
       </c>
@@ -1690,8 +1796,11 @@
       <c r="I41">
         <v>3.3861255498755786E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>24</v>
       </c>
@@ -1719,8 +1828,11 @@
       <c r="I42">
         <v>3.2888308980365266E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J42">
+        <v>1.38015596429164E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>24</v>
       </c>
@@ -1748,8 +1860,11 @@
       <c r="I43">
         <v>4.4153480206468802E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J43">
+        <v>9.2281723065990306E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>24</v>
       </c>
@@ -1777,8 +1892,11 @@
       <c r="I44">
         <v>4.0391356731218978E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J44">
+        <v>3.3197309065592239E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>24</v>
       </c>
@@ -1806,8 +1924,11 @@
       <c r="I45">
         <v>6.4823684395116418E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J45">
+        <v>0.13989912886471753</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>24</v>
       </c>
@@ -1835,8 +1956,11 @@
       <c r="I46">
         <v>5.4174761651194399E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J46">
+        <v>2.0062487034152563E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0</v>
       </c>
@@ -1864,8 +1988,11 @@
       <c r="I47">
         <v>6.5219429117914285E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J47">
+        <v>6.5219429117914285E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0</v>
       </c>
@@ -1893,8 +2020,11 @@
       <c r="I48">
         <v>0.14629795472825119</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J48">
+        <v>0.14629795472825119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0</v>
       </c>
@@ -1922,8 +2052,11 @@
       <c r="I49">
         <v>3.0413194889743971E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J49">
+        <v>3.0413194889743971E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0</v>
       </c>
@@ -1951,8 +2084,11 @@
       <c r="I50">
         <v>3.3373939707782262E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J50">
+        <v>6.1745162565487429E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0</v>
       </c>
@@ -1980,8 +2116,11 @@
       <c r="I51">
         <v>5.7750423619154591E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J51">
+        <v>9.8216962198990308E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>24</v>
       </c>
@@ -2009,8 +2148,11 @@
       <c r="I52">
         <v>6.9314070925593843E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J52">
+        <v>4.2564020237800893E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>24</v>
       </c>
@@ -2038,8 +2180,11 @@
       <c r="I53">
         <v>5.5410983609049641E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J53">
+        <v>2.6043668601406878E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>24</v>
       </c>
@@ -2067,8 +2212,11 @@
       <c r="I54">
         <v>6.9569006102208966E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J54">
+        <v>5.6166586303125772E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>24</v>
       </c>
@@ -2096,8 +2244,11 @@
       <c r="I55">
         <v>8.4309402296496125E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J55">
+        <v>7.6899314162109621E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>24</v>
       </c>
@@ -2125,8 +2276,11 @@
       <c r="I56">
         <v>0.10148577292409998</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J56">
+        <v>4.168705231719786E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>24</v>
       </c>
@@ -2154,8 +2308,11 @@
       <c r="I57">
         <v>4.5955936648926617E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J57">
+        <v>6.9677540540251928E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>24</v>
       </c>
@@ -2183,8 +2340,11 @@
       <c r="I58">
         <v>4.239410692801792E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J58">
+        <v>7.639390723616768E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>24</v>
       </c>
@@ -2212,8 +2372,11 @@
       <c r="I59">
         <v>4.4157930567865523E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J59">
+        <v>2.4540320929559174E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>24</v>
       </c>
@@ -2241,8 +2404,11 @@
       <c r="I60">
         <v>4.8415764917092013E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J60">
+        <v>7.7129090090566635E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>24</v>
       </c>
@@ -2269,6 +2435,9 @@
       </c>
       <c r="I61">
         <v>0.10839397488771912</v>
+      </c>
+      <c r="J61">
+        <v>7.4827390885864381E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2281,10 +2450,13 @@
   <dimension ref="A1:N157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="12" max="12" width="14.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
